--- a/MTProject/TestData/Merseytraveltestdata.xlsx
+++ b/MTProject/TestData/Merseytraveltestdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zameer.shaik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zameer.shaik\Desktop\TestData-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F5C14-3FFE-4582-9A22-AC268E79EC7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783174F-BC3A-4850-A729-7A2A7139AEF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27000" windowHeight="4140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t>Title</t>
   </si>
@@ -217,15 +217,9 @@
     <t>N</t>
   </si>
   <si>
-    <t>Blind / Partially Sighted (A)</t>
-  </si>
-  <si>
     <t>6 Months</t>
   </si>
   <si>
-    <t>WalrusIA</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -260,6 +254,9 @@
   </si>
   <si>
     <t>Merseytravel 60 local concession</t>
+  </si>
+  <si>
+    <t>Blind / Partially Sighted</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,28 +685,28 @@
         <v>41</v>
       </c>
       <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
       <c r="Q1" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -726,7 +723,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -795,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -870,7 +867,7 @@
         <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T4" s="1"/>
     </row>
@@ -899,8 +896,8 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
-        <v>63</v>
+      <c r="I5" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>60</v>
@@ -909,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
         <v>60</v>
@@ -966,10 +963,10 @@
         <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -1020,10 +1017,10 @@
         <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
         <v>33</v>
@@ -1074,10 +1071,10 @@
         <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O8" t="s">
         <v>27</v>
@@ -1128,10 +1125,10 @@
         <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
         <v>33</v>
